--- a/Indicadores base.xlsx
+++ b/Indicadores base.xlsx
@@ -5,18 +5,18 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Unisalle\Desktop\prestamos_pregrado\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Unisalle\Desktop\prestamos_posgrado\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D4153103-B5F9-4CA5-838B-BFC12DE0074A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89F9D536-CBAB-441E-80A2-36130324C0A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19320" yWindow="-2100" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Hoja1!$A$1:$J$40</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Hoja1!$A$1:$J$32</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="23">
   <si>
     <t>UBICACIÓN DE SERVICIOS ATENDIDOS</t>
   </si>
@@ -78,37 +78,7 @@
     <t>TOTAL HORAS USO DE PORTÁTIL</t>
   </si>
   <si>
-    <t>TOTAL HORAS USO DE CPU</t>
-  </si>
-  <si>
     <t>SERVICIOS ATENDIDOS POR TIPO DE USUARIO</t>
-  </si>
-  <si>
-    <t>AUDITORIO AZUL</t>
-  </si>
-  <si>
-    <t>AUDITORIO ROJO</t>
-  </si>
-  <si>
-    <t>SUSTENTACIONES 1</t>
-  </si>
-  <si>
-    <t>SUSTENTACIONES 2</t>
-  </si>
-  <si>
-    <t>EXPOSICIONES A-B</t>
-  </si>
-  <si>
-    <t>CINCUENTENARIO</t>
-  </si>
-  <si>
-    <t>HERMANO MARTIN</t>
-  </si>
-  <si>
-    <t>CONCEJO ACADEMICO</t>
-  </si>
-  <si>
-    <t>TEATRO</t>
   </si>
   <si>
     <t>RELACION SOLICITUDES AUDITORIOS PREGRADO</t>
@@ -120,9 +90,6 @@
     <t>TOTAL HORAS USO DE PANTALLAS ONESCREEN</t>
   </si>
   <si>
-    <t>TOTAL HORAS USO DE SMART TV / TELEVISOR</t>
-  </si>
-  <si>
     <t>TOTAL HORAS USO DE PARLANTE</t>
   </si>
   <si>
@@ -131,12 +98,21 @@
   <si>
     <t>TOTAL SERVICIOS ATENDIDOS EN EL MES: AGOSTO</t>
   </si>
+  <si>
+    <t>BAUSCH &amp; LOMB</t>
+  </si>
+  <si>
+    <t>SALÓN SOCIAL</t>
+  </si>
+  <si>
+    <t>HOUSTON</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -197,42 +173,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF0070C0"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="5" tint="-0.249977111117893"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF7030A0"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF00B0F0"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFF66CC"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -245,22 +186,15 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFC000"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF9966FF"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
+      <color theme="9" tint="-0.249977111117893"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -279,7 +213,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="26">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -517,19 +451,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -557,34 +478,6 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -626,7 +519,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -691,46 +584,19 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -745,7 +611,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -759,6 +625,12 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1910,8 +1782,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.56424099972578068"/>
-          <c:y val="9.2632974772264939E-2"/>
+          <c:x val="0.34284796489990993"/>
+          <c:y val="7.591437286323803E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -2022,9 +1894,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Hoja1!$B$22:$B$27</c:f>
+              <c:f>Hoja1!$B$22:$B$25</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>TOTAL HORAS USO DE VIDEO BEAM</c:v>
                 </c:pt>
@@ -2032,15 +1904,9 @@
                   <c:v>TOTAL HORAS USO DE PORTÁTIL</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>TOTAL HORAS USO DE CPU</c:v>
+                  <c:v>TOTAL HORAS USO DE PANTALLAS ONESCREEN</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>TOTAL HORAS USO DE PANTALLAS ONESCREEN</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>TOTAL HORAS USO DE SMART TV / TELEVISOR</c:v>
-                </c:pt>
-                <c:pt idx="5">
                   <c:v>TOTAL HORAS USO DE PARLANTE</c:v>
                 </c:pt>
               </c:strCache>
@@ -2048,10 +1914,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$C$22:$C$27</c:f>
+              <c:f>Hoja1!$C$22:$C$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="4"/>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2729,120 +2595,6 @@
               </c:ext>
             </c:extLst>
           </c:dPt>
-          <c:dPt>
-            <c:idx val="3"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="7030A0"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000004-679C-4993-9583-5BB29DF381B3}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="4"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="00B0F0"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000005-679C-4993-9583-5BB29DF381B3}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="5"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="FF66CC"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000006-679C-4993-9583-5BB29DF381B3}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="6"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="00B050"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000007-679C-4993-9583-5BB29DF381B3}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="7"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="FFC000"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000008-679C-4993-9583-5BB29DF381B3}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="8"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="9966FF"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000009-679C-4993-9583-5BB29DF381B3}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
@@ -2886,96 +2638,6 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000003-679C-4993-9583-5BB29DF381B3}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="3"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000004-679C-4993-9583-5BB29DF381B3}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="4"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000005-679C-4993-9583-5BB29DF381B3}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="5"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000006-679C-4993-9583-5BB29DF381B3}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="6"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000007-679C-4993-9583-5BB29DF381B3}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="7"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000008-679C-4993-9583-5BB29DF381B3}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="8"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000009-679C-4993-9583-5BB29DF381B3}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -3036,45 +2698,27 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Hoja1!$B$30:$B$38</c:f>
+              <c:f>Hoja1!$B$28:$B$30</c:f>
               <c:strCache>
-                <c:ptCount val="9"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>AUDITORIO AZUL</c:v>
+                  <c:v>BAUSCH &amp; LOMB</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>AUDITORIO ROJO</c:v>
+                  <c:v>SALÓN SOCIAL</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>SUSTENTACIONES 1</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>SUSTENTACIONES 2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>EXPOSICIONES A-B</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>CINCUENTENARIO</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>HERMANO MARTIN</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>CONCEJO ACADEMICO</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>TEATRO</c:v>
+                  <c:v>HOUSTON</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$C$30:$C$38</c:f>
+              <c:f>Hoja1!$C$28:$C$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="3"/>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -6627,7 +6271,7 @@
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -6694,14 +6338,14 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>61912</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>581025</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -6996,10 +6640,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:C39"/>
+  <dimension ref="B1:C31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7011,72 +6655,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:3" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="40" t="s">
-        <v>29</v>
+      <c r="B1" s="31" t="s">
+        <v>18</v>
       </c>
-      <c r="C1" s="40"/>
+      <c r="C1" s="31"/>
     </row>
     <row r="2" spans="2:3" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="41" t="s">
-        <v>30</v>
+      <c r="B2" s="32" t="s">
+        <v>19</v>
       </c>
-      <c r="C2" s="42"/>
+      <c r="C2" s="33"/>
     </row>
     <row r="3" spans="2:3" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="38" t="s">
+      <c r="B3" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="39"/>
+      <c r="C3" s="30"/>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B4" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="36"/>
+      <c r="C4" s="27"/>
     </row>
     <row r="5" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="35"/>
+      <c r="C5" s="26"/>
     </row>
     <row r="6" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="3"/>
       <c r="C6" s="4"/>
     </row>
     <row r="7" spans="2:3" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="43" t="s">
-        <v>14</v>
+      <c r="B7" s="34" t="s">
+        <v>13</v>
       </c>
-      <c r="C7" s="44"/>
+      <c r="C7" s="35"/>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B8" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="36"/>
+      <c r="C8" s="27"/>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B9" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="37"/>
+      <c r="C9" s="28"/>
     </row>
     <row r="10" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="35"/>
+      <c r="C10" s="26"/>
     </row>
     <row r="11" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
     </row>
     <row r="12" spans="2:3" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="43" t="s">
+      <c r="B12" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="44"/>
+      <c r="C12" s="35"/>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B13" s="17" t="s">
@@ -7094,22 +6738,22 @@
       <c r="B15" s="9"/>
     </row>
     <row r="16" spans="2:3" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="41" t="s">
+      <c r="B16" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="C16" s="42"/>
+      <c r="C16" s="33"/>
     </row>
     <row r="17" spans="2:3" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="38" t="s">
+      <c r="B17" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="39"/>
+      <c r="C17" s="30"/>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B18" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="C18" s="36">
+      <c r="C18" s="27">
         <f>C9</f>
         <v>0</v>
       </c>
@@ -7118,7 +6762,7 @@
       <c r="B19" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C19" s="37">
+      <c r="C19" s="28">
         <f>C8</f>
         <v>0</v>
       </c>
@@ -7127,7 +6771,7 @@
       <c r="B20" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C20" s="35">
+      <c r="C20" s="26">
         <f>C10</f>
         <v>0</v>
       </c>
@@ -7148,103 +6792,55 @@
       </c>
       <c r="C23" s="14"/>
     </row>
-    <row r="24" spans="2:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="B24" s="13" t="s">
-        <v>13</v>
+    <row r="24" spans="2:3" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="B24" s="25" t="s">
+        <v>16</v>
       </c>
-      <c r="C24" s="14"/>
+      <c r="C24" s="24"/>
     </row>
-    <row r="25" spans="2:3" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B25" s="34" t="s">
-        <v>26</v>
+    <row r="25" spans="2:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="15" t="s">
+        <v>17</v>
       </c>
-      <c r="C25" s="33"/>
+      <c r="C25" s="16"/>
     </row>
-    <row r="26" spans="2:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="B26" s="13" t="s">
-        <v>27</v>
+    <row r="26" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="7"/>
+      <c r="C26" s="8"/>
+    </row>
+    <row r="27" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="29" t="s">
+        <v>14</v>
       </c>
-      <c r="C26" s="33"/>
+      <c r="C27" s="30"/>
     </row>
-    <row r="27" spans="2:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="15" t="s">
-        <v>28</v>
+    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B28" s="36" t="s">
+        <v>20</v>
       </c>
-      <c r="C27" s="16"/>
+      <c r="C28" s="20"/>
     </row>
-    <row r="28" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="7"/>
-      <c r="C28" s="8"/>
+    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B29" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="C29" s="21"/>
     </row>
-    <row r="29" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="38" t="s">
-        <v>24</v>
+    <row r="30" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="23" t="s">
+        <v>22</v>
       </c>
-      <c r="C29" s="39"/>
+      <c r="C30" s="21"/>
     </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B30" s="24" t="s">
+    <row r="31" spans="2:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B31" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="C30" s="20"/>
-    </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B31" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="C31" s="21"/>
-    </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B32" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="C32" s="21"/>
-    </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B33" s="27" t="s">
-        <v>18</v>
-      </c>
-      <c r="C33" s="21"/>
-    </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B34" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="C34" s="21"/>
-    </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B35" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="C35" s="21"/>
-    </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B36" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="C36" s="21"/>
-    </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B37" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="C37" s="21"/>
-    </row>
-    <row r="38" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="32" t="s">
-        <v>23</v>
-      </c>
-      <c r="C38" s="22"/>
-    </row>
-    <row r="39" spans="2:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B39" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="C39" s="23"/>
+      <c r="C31" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B27:C27"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="B3:C3"/>
